--- a/ESPN sports website/IPL/Rajasthan Royals/Shimron Hetmyer.xlsx
+++ b/ESPN sports website/IPL/Rajasthan Royals/Shimron Hetmyer.xlsx
@@ -480,31 +480,31 @@
         <v>Shimron Hetmyer</v>
       </c>
       <c r="C3" t="str">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D3" t="str">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E3" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" t="str">
         <v>2</v>
       </c>
       <c r="G3" t="str">
-        <v>135.48</v>
+        <v>207.69</v>
       </c>
       <c r="H3" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Kolkata Knight Riders</v>
       </c>
       <c r="I3" t="str">
         <v>Wankhede</v>
       </c>
       <c r="J3" t="str">
-        <v>April 05, 2022</v>
+        <v>May 02, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>RCB won by 4 wickets (with 5 balls remaining)</v>
+        <v>KKR won by 7 wickets (with 5 balls remaining)</v>
       </c>
     </row>
     <row r="4">
@@ -515,31 +515,31 @@
         <v>Shimron Hetmyer</v>
       </c>
       <c r="C4" t="str">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D4" t="str">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E4" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="str">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G4" t="str">
-        <v>200.00</v>
+        <v>163.88</v>
       </c>
       <c r="H4" t="str">
-        <v>Kolkata Knight Riders</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I4" t="str">
-        <v>Brabourne</v>
+        <v>Wankhede</v>
       </c>
       <c r="J4" t="str">
-        <v>April 18, 2022</v>
+        <v>April 10, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Royals won by 7 runs</v>
+        <v>Royals won by 3 runs</v>
       </c>
     </row>
     <row r="5">
@@ -550,31 +550,31 @@
         <v>Shimron Hetmyer</v>
       </c>
       <c r="C5" t="str">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D5" t="str">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E5" t="str">
+        <v>4</v>
+      </c>
+      <c r="F5" t="str">
         <v>2</v>
       </c>
-      <c r="F5" t="str">
-        <v>3</v>
-      </c>
       <c r="G5" t="str">
-        <v>246.15</v>
+        <v>135.48</v>
       </c>
       <c r="H5" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="I5" t="str">
-        <v>Pune</v>
+        <v>Wankhede</v>
       </c>
       <c r="J5" t="str">
-        <v>March 29, 2022</v>
+        <v>April 05, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>Royals won by 61 runs</v>
+        <v>RCB won by 4 wickets (with 5 balls remaining)</v>
       </c>
     </row>
     <row r="6">
@@ -585,31 +585,31 @@
         <v>Shimron Hetmyer</v>
       </c>
       <c r="C6" t="str">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D6" t="str">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E6" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6" t="str">
-        <v>57.14</v>
+        <v>246.15</v>
       </c>
       <c r="H6" t="str">
-        <v>Gujarat Titans</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I6" t="str">
-        <v>Kolkata</v>
+        <v>Pune</v>
       </c>
       <c r="J6" t="str">
-        <v>May 24, 2022</v>
+        <v>March 29, 2022</v>
       </c>
       <c r="K6" t="str">
-        <v>Titans won by 7 wickets (with 3 balls remaining)</v>
+        <v>Royals won by 61 runs</v>
       </c>
     </row>
     <row r="7">
@@ -620,31 +620,31 @@
         <v>Shimron Hetmyer</v>
       </c>
       <c r="C7" t="str">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D7" t="str">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E7" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" t="str">
-        <v>100.00</v>
+        <v>250.00</v>
       </c>
       <c r="H7" t="str">
-        <v>Delhi Capitals</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I7" t="str">
-        <v>Wankhede</v>
+        <v>DY Patil</v>
       </c>
       <c r="J7" t="str">
-        <v>April 22, 2022</v>
+        <v>April 02, 2022</v>
       </c>
       <c r="K7" t="str">
-        <v>Royals won by 15 runs</v>
+        <v>Royals won by 23 runs</v>
       </c>
     </row>
     <row r="8">
@@ -655,31 +655,31 @@
         <v>Shimron Hetmyer</v>
       </c>
       <c r="C8" t="str">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D8" t="str">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="str">
         <v>2</v>
       </c>
       <c r="F8" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="str">
-        <v>91.66</v>
+        <v>200.00</v>
       </c>
       <c r="H8" t="str">
-        <v>Gujarat Titans</v>
+        <v>Kolkata Knight Riders</v>
       </c>
       <c r="I8" t="str">
-        <v>Ahmedabad</v>
+        <v>Brabourne</v>
       </c>
       <c r="J8" t="str">
-        <v>May 29, 2022</v>
+        <v>April 18, 2022</v>
       </c>
       <c r="K8" t="str">
-        <v>Titans won by 7 wickets (with 11 balls remaining)</v>
+        <v>Royals won by 7 runs</v>
       </c>
     </row>
     <row r="9">
@@ -693,28 +693,28 @@
         <v>6</v>
       </c>
       <c r="D9" t="str">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E9" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="str">
         <v>0</v>
       </c>
       <c r="G9" t="str">
-        <v>85.71</v>
+        <v>42.85</v>
       </c>
       <c r="H9" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I9" t="str">
-        <v>Brabourne</v>
+        <v>DY Patil</v>
       </c>
       <c r="J9" t="str">
-        <v>May 20, 2022</v>
+        <v>April 30, 2022</v>
       </c>
       <c r="K9" t="str">
-        <v>Royals won by 5 wickets (with 2 balls remaining)</v>
+        <v>Mumbai won by 5 wickets (with 4 balls remaining)</v>
       </c>
     </row>
     <row r="10">
@@ -725,31 +725,31 @@
         <v>Shimron Hetmyer</v>
       </c>
       <c r="C10" t="str">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D10" t="str">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E10" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G10" t="str">
-        <v>250.00</v>
+        <v>85.71</v>
       </c>
       <c r="H10" t="str">
-        <v>Mumbai Indians</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="I10" t="str">
-        <v>DY Patil</v>
+        <v>Brabourne</v>
       </c>
       <c r="J10" t="str">
-        <v>April 02, 2022</v>
+        <v>May 20, 2022</v>
       </c>
       <c r="K10" t="str">
-        <v>Royals won by 23 runs</v>
+        <v>Royals won by 5 wickets (with 2 balls remaining)</v>
       </c>
     </row>
     <row r="11">
@@ -760,31 +760,31 @@
         <v>Shimron Hetmyer</v>
       </c>
       <c r="C11" t="str">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="D11" t="str">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E11" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="str">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G11" t="str">
-        <v>163.88</v>
+        <v>57.14</v>
       </c>
       <c r="H11" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I11" t="str">
-        <v>Wankhede</v>
+        <v>Kolkata</v>
       </c>
       <c r="J11" t="str">
-        <v>April 10, 2022</v>
+        <v>May 24, 2022</v>
       </c>
       <c r="K11" t="str">
-        <v>Royals won by 3 runs</v>
+        <v>Titans won by 7 wickets (with 3 balls remaining)</v>
       </c>
     </row>
     <row r="12">
@@ -795,31 +795,31 @@
         <v>Shimron Hetmyer</v>
       </c>
       <c r="C12" t="str">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D12" t="str">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E12" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="str">
-        <v>207.69</v>
+        <v>66.66</v>
       </c>
       <c r="H12" t="str">
-        <v>Kolkata Knight Riders</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="I12" t="str">
-        <v>Wankhede</v>
+        <v>Ahmedabad</v>
       </c>
       <c r="J12" t="str">
-        <v>May 02, 2022</v>
+        <v>May 27, 2022</v>
       </c>
       <c r="K12" t="str">
-        <v>KKR won by 7 wickets (with 5 balls remaining)</v>
+        <v>Royals won by 7 wickets (with 11 balls remaining)</v>
       </c>
     </row>
     <row r="13">
@@ -830,31 +830,31 @@
         <v>Shimron Hetmyer</v>
       </c>
       <c r="C13" t="str">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D13" t="str">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E13" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F13" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" t="str">
-        <v>42.85</v>
+        <v>193.75</v>
       </c>
       <c r="H13" t="str">
-        <v>Mumbai Indians</v>
+        <v>Punjab Kings</v>
       </c>
       <c r="I13" t="str">
-        <v>DY Patil</v>
+        <v>Wankhede</v>
       </c>
       <c r="J13" t="str">
-        <v>April 30, 2022</v>
+        <v>May 07, 2022</v>
       </c>
       <c r="K13" t="str">
-        <v>Mumbai won by 5 wickets (with 4 balls remaining)</v>
+        <v>Royals won by 6 wickets (with 2 balls remaining)</v>
       </c>
     </row>
     <row r="14">
@@ -865,31 +865,31 @@
         <v>Shimron Hetmyer</v>
       </c>
       <c r="C14" t="str">
+        <v>11</v>
+      </c>
+      <c r="D14" t="str">
+        <v>12</v>
+      </c>
+      <c r="E14" t="str">
         <v>2</v>
       </c>
-      <c r="D14" t="str">
-        <v>3</v>
-      </c>
-      <c r="E14" t="str">
-        <v>0</v>
-      </c>
       <c r="F14" t="str">
         <v>0</v>
       </c>
       <c r="G14" t="str">
-        <v>66.66</v>
+        <v>91.66</v>
       </c>
       <c r="H14" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I14" t="str">
         <v>Ahmedabad</v>
       </c>
       <c r="J14" t="str">
-        <v>May 27, 2022</v>
+        <v>May 29, 2022</v>
       </c>
       <c r="K14" t="str">
-        <v>Royals won by 7 wickets (with 11 balls remaining)</v>
+        <v>Titans won by 7 wickets (with 11 balls remaining)</v>
       </c>
     </row>
     <row r="15">
@@ -900,10 +900,10 @@
         <v>Shimron Hetmyer</v>
       </c>
       <c r="C15" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" t="str">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E15" t="str">
         <v>0</v>
@@ -912,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="str">
-        <v>42.85</v>
+        <v>100.00</v>
       </c>
       <c r="H15" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I15" t="str">
-        <v>Pune</v>
+        <v>Wankhede</v>
       </c>
       <c r="J15" t="str">
-        <v>April 26, 2022</v>
+        <v>April 22, 2022</v>
       </c>
       <c r="K15" t="str">
-        <v>Royals won by 29 runs</v>
+        <v>Royals won by 15 runs</v>
       </c>
     </row>
     <row r="16">
@@ -935,31 +935,31 @@
         <v>Shimron Hetmyer</v>
       </c>
       <c r="C16" t="str">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D16" t="str">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E16" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F16" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" t="str">
-        <v>193.75</v>
+        <v>42.85</v>
       </c>
       <c r="H16" t="str">
-        <v>Punjab Kings</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="I16" t="str">
-        <v>Wankhede</v>
+        <v>Pune</v>
       </c>
       <c r="J16" t="str">
-        <v>May 07, 2022</v>
+        <v>April 26, 2022</v>
       </c>
       <c r="K16" t="str">
-        <v>Royals won by 6 wickets (with 2 balls remaining)</v>
+        <v>Royals won by 29 runs</v>
       </c>
     </row>
   </sheetData>
